--- a/lib/dfaf.xlsx
+++ b/lib/dfaf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANARDHAN\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB872C-97EE-4DBD-B2BA-A6FDF5BB6BF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C364BBE-0D62-4667-BEBE-4080D8E578F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,7 +372,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
